--- a/학습자료/단답형/국어 파이널.xlsx
+++ b/학습자료/단답형/국어 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>질문</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>대답</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>질문</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>確執</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>확집| 자기의 의견을 굳이 고집하여 양보하지 아니함</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>確執</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>威儀</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>위의| 위엄이 있고 엄숙한 태도나 차림새. 예법에 맞는 몸가짐</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>威儀</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>强度</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>강도| 센 정도</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>强度</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -518,32 +518,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>一朝</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>일조| 하루아침</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>一朝</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>한자 2글자</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>日照</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>일조| 햇볕이 내리쬠</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>日照</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -558,12 +558,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>電波</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>전파| 도체 중의 전류가 진동함으로써 방사되는 전자기파</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>電波</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -578,32 +578,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>傳播</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>전파| 전하여 널리 퍼뜨림</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>傳播</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>한자 2글자</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>可視</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>가시| 눈으로 볼 수 있는 것</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>可視</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -618,12 +618,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>改組</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>개조| 조직 따위를 고쳐 다시 짬</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>改組</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>改造</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>개조| 고쳐 만들거나 바꿈</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>改造</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -658,32 +658,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>遍歷</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>편력| 이곳저곳을 널리 돌아다님. 여러 가지 경험을 함.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>遍歷</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>한자 2글자</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>旅行</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>여행| 일이나 유람을 목적으로 다른 고장이나 외국에 가는 일</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>旅行</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>자연| 억지로 꾸미지 아니하여 이상함이 없다</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>自然</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -718,32 +718,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>瞬息間</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>순식간| 눈을 한 번 깜짝하거나 숨을 한 번 쉴 만한 아주 짧은 동안</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>瞬息間</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>한자 3글자</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>구축</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>構築</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -758,12 +758,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>간주</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>看做</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -778,12 +778,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>涉獵</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>섭렵</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>涉獵</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>叱責</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>질책</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>叱責</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -818,12 +818,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>投擲</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>투척</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>投擲</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -838,32 +838,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>파산</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>破散</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>한자 2글자</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>비교</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>比較</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -878,12 +878,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>拿捕</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>나포</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>拿捕</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>추호</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>秋毫</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -918,12 +918,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>未練</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>미련</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>未練</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -938,12 +938,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>健康</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>건강</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>健康</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -958,12 +958,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>不肖</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>불초</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>不肖</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -978,12 +978,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>左遷</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>좌천</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>左遷</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -998,12 +998,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>未安</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>미안</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>未安</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1018,12 +1018,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>經營</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>경영</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>經營</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>知慧</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>지혜</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>知慧</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1058,12 +1058,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>呵責</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>가책</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>呵責</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1078,12 +1078,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>究明</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>구명</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>究明</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1098,12 +1098,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>혹사</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>酷使</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>상투</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>常套</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1138,12 +1138,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>無骨好人</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>무골호인 | 뼈가 없이 좋은 사람이라는 뜻으로, 줏대가 없이 두루뭉술하고 순하여 남의 비위를 다 맞추는 사람</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>無骨好人</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1158,12 +1158,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>亂臣賊子</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>난신적자 | 나라를 어지럽히는 불충한 무리</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>亂臣賊子</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1178,12 +1178,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>梁上君子</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>양상군자 | 들보 위에 있는 군자라는 뜻으로, 도둑을 미화하여 점잖게 부르는 말</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>梁上君子</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1198,12 +1198,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>修己安人</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>수기안인 | 자신의 인격을 닦아서 사람을 평안하게 하는 것</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>修己安人</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1218,12 +1218,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>교정 : 틀어지거나 잘못된 것을 바로잡음</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>矯正| 바로잡을 교, 바를 정</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>교정 : 틀어지거나 잘못된 것을 바로잡음</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>교정 : 학교의 마당이나 운동장</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>校庭| 학교 교, 뜰 정</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>교정 : 학교의 마당이나 운동장</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1258,12 +1258,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>교정 : 남의 문장 또는 출판물의 잘못된 글자나 글귀 따위를 바르게 고침</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>校訂| 학교/바로잡다 교, 바로잡을 정</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>교정 : 남의 문장 또는 출판물의 잘못된 글자나 글귀 따위를 바르게 고침</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>교정 : 가르쳐서 바르게 함</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>敎正| 가르칠 교, 바를 정</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>교정 : 가르쳐서 바르게 함</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1298,12 +1298,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>滔滔</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>도도| 말하는 모양이 거침이 없다</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>滔滔</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1318,12 +1318,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>淡淡</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>담담| 차분하고 평온하다</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>淡淡</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1338,12 +1338,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>濁流</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>탁류| 흘러가는 흐린 물. 또는 그런 흐름.</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>濁流</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1358,32 +1358,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>喊聲</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>함성| 여러 사람이 함께 외치거나 지르는 소리.</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>喊聲</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>한자 2글자</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>變節</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>변절| 절개나 지조를 지키지 않고 바꿈</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>變節</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1398,14 +1398,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>權力</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>권력</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>權力</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>한자 2글자</t>
@@ -1413,6 +1413,226 @@
       </c>
       <c r="D49" t="n">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>오이 한 거리</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>50| 50개</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>한약 한 제</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>20| 20첩</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>바늘 한 쌈</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>24| 24개</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>북어 한 쾌</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>20| 20마리</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>고등어 한 손</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2| 2마리</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>연필 한 타</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>12| 12자루</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>북어 한 쾌</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>20| 20마리</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>미역 한 뭇</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>10| 10장</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>굴비 한 두름</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>20| 20마리</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>배추 한 접</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>100| 100개</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>오징어 한 축</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>20| 20마리</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>단위</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어 파이널.xlsx
+++ b/학습자료/단답형/국어 파이널.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="18">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="44">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="55">
@@ -1532,18 +1532,18 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>북어 한 쾌</t>
+          <t>미역 한 뭇</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20| 20마리</t>
+          <t>10| 10장</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1552,18 +1552,18 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>미역 한 뭇</t>
+          <t>굴비 한 두름</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10| 10장</t>
+          <t>20| 20마리</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1572,18 +1572,18 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>굴비 한 두름</t>
+          <t>배추 한 접</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20| 20마리</t>
+          <t>100| 100개</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1592,18 +1592,18 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>배추 한 접</t>
+          <t>오징어 한 축</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>100| 100개</t>
+          <t>20| 20마리</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1612,27 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>오징어 한 축</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>20| 20마리</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>단위</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어 파이널.xlsx
+++ b/학습자료/단답형/국어 파이널.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="69">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="79">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="81">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="82">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="83">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="86">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="87">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="88">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="89">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>
